--- a/SalesData.xlsx
+++ b/SalesData.xlsx
@@ -1,362 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Sales Target</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Heazel</t>
-  </si>
-  <si>
-    <t>Conte</t>
-  </si>
-  <si>
-    <t>Mascetti</t>
-  </si>
-  <si>
-    <t>Dallon</t>
-  </si>
-  <si>
-    <t>Seals</t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>Thomsson</t>
-  </si>
-  <si>
-    <t>Yoko</t>
-  </si>
-  <si>
-    <t>Flecknell</t>
-  </si>
-  <si>
-    <t>Ninnette</t>
-  </si>
-  <si>
-    <t>Heinssen</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Vasnetsov</t>
-  </si>
-  <si>
-    <t>Pearline</t>
-  </si>
-  <si>
-    <t>Fenton</t>
-  </si>
-  <si>
-    <t>Lelah</t>
-  </si>
-  <si>
-    <t>Yewdale</t>
-  </si>
-  <si>
-    <t>Belinda</t>
-  </si>
-  <si>
-    <t>Blumenthal</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Degoe</t>
-  </si>
-  <si>
-    <t>Donnamarie</t>
-  </si>
-  <si>
-    <t>Watts</t>
-  </si>
-  <si>
-    <t>Anabella</t>
-  </si>
-  <si>
-    <t>Blindermann</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Mengoni</t>
-  </si>
-  <si>
-    <t>Nathanil</t>
-  </si>
-  <si>
-    <t>Bragg</t>
-  </si>
-  <si>
-    <t>Casar</t>
-  </si>
-  <si>
-    <t>Kubek</t>
-  </si>
-  <si>
-    <t>Myrtle</t>
-  </si>
-  <si>
-    <t>Puddle</t>
-  </si>
-  <si>
-    <t>Devi</t>
-  </si>
-  <si>
-    <t>Oag</t>
-  </si>
-  <si>
-    <t>Emyle</t>
-  </si>
-  <si>
-    <t>O'Driscole</t>
-  </si>
-  <si>
-    <t>Mickie</t>
-  </si>
-  <si>
-    <t>Linbohm</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Asimov</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>Mundow</t>
-  </si>
-  <si>
-    <t>Mahalia</t>
-  </si>
-  <si>
-    <t>Goodee</t>
-  </si>
-  <si>
-    <t>Christy</t>
-  </si>
-  <si>
-    <t>Iwaszkiewicz</t>
-  </si>
-  <si>
-    <t>Madelyn</t>
-  </si>
-  <si>
-    <t>Sire</t>
-  </si>
-  <si>
-    <t>Thurstan</t>
-  </si>
-  <si>
-    <t>Karus</t>
-  </si>
-  <si>
-    <t>Bibi</t>
-  </si>
-  <si>
-    <t>Rosita</t>
-  </si>
-  <si>
-    <t>Abbe</t>
-  </si>
-  <si>
-    <t>Aldcorn</t>
-  </si>
-  <si>
-    <t>Ariadne</t>
-  </si>
-  <si>
-    <t>Kiessel</t>
-  </si>
-  <si>
-    <t>Tiffany</t>
-  </si>
-  <si>
-    <t>Emerine</t>
-  </si>
-  <si>
-    <t>Jelene</t>
-  </si>
-  <si>
-    <t>Pridden</t>
-  </si>
-  <si>
-    <t>Claus</t>
-  </si>
-  <si>
-    <t>Bawcock</t>
-  </si>
-  <si>
-    <t>Ameline</t>
-  </si>
-  <si>
-    <t>Olivello</t>
-  </si>
-  <si>
-    <t>Alikee</t>
-  </si>
-  <si>
-    <t>Kohtler</t>
-  </si>
-  <si>
-    <t>Cathleen</t>
-  </si>
-  <si>
-    <t>Tinklin</t>
-  </si>
-  <si>
-    <t>Flossie</t>
-  </si>
-  <si>
-    <t>Gurr</t>
-  </si>
-  <si>
-    <t>Milena</t>
-  </si>
-  <si>
-    <t>Gudeman</t>
-  </si>
-  <si>
-    <t>Bliss</t>
-  </si>
-  <si>
-    <t>Burgess</t>
-  </si>
-  <si>
-    <t>Donia</t>
-  </si>
-  <si>
-    <t>Messenbird</t>
-  </si>
-  <si>
-    <t>Jemie</t>
-  </si>
-  <si>
-    <t>Tunnacliffe</t>
-  </si>
-  <si>
-    <t>Gaylord</t>
-  </si>
-  <si>
-    <t>Uebel</t>
-  </si>
-  <si>
-    <t>Rufus</t>
-  </si>
-  <si>
-    <t>Bewlie</t>
-  </si>
-  <si>
-    <t>Jenine</t>
-  </si>
-  <si>
-    <t>Kidby</t>
-  </si>
-  <si>
-    <t>Hortensia</t>
-  </si>
-  <si>
-    <t>Leal</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>Gurling</t>
-  </si>
-  <si>
-    <t>Valenka</t>
-  </si>
-  <si>
-    <t>Tantrum</t>
-  </si>
-  <si>
-    <t>Dorie</t>
-  </si>
-  <si>
-    <t>Batistelli</t>
-  </si>
-  <si>
-    <t>Abra</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Petronille</t>
-  </si>
-  <si>
-    <t>Lesor</t>
-  </si>
-  <si>
-    <t>Vincenty</t>
-  </si>
-  <si>
-    <t>Stannering</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="9"/>
       <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -473,59 +156,59 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1602,850 +1285,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333" defaultRowHeight="12.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col width="19.1719" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.8516" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.5" customWidth="1" style="1" min="3" max="3"/>
+    <col width="30.5" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.851559999999999" customWidth="1" style="1" min="5" max="6"/>
+    <col width="8.851559999999999" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="12.6" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="1" ht="16.5" customHeight="1" s="14">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Sales Target</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="12.6" customHeight="1" s="14">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Heazel</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>80193</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="12.6" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="12.6" customHeight="1" s="14">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Conte</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Mascetti</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>141182</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="10" t="n">
         <v>35000</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="12.6" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="12.6" customHeight="1" s="14">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Dallon</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Seals</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>61456</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" ht="12.6" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="14">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Jocelyn</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Thomsson</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>99354</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="10" t="n">
         <v>95000</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="12.6" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="14">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Yoko</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Flecknell</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>139701</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="11" t="n">
         <v>50000</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="12.6" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="14">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Ninnette</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Heinssen</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>63808</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="10" t="n">
         <v>25000</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="12.6" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="14">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Vasnetsov</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>50211</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" ht="12.6" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>Hmm. Did not quite make it.</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="14">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Pearline</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Fenton</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>78556</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="10" t="n">
         <v>35000</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" ht="12.6" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="14">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Lelah</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Yewdale</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>122695</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11" t="n">
         <v>100000</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" ht="12.6" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="14">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Belinda</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Blumenthal</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="n">
         <v>115410</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" ht="12.6" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="14">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Antoni</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Degoe</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>106991</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="12.6" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="14">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Donnamarie</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Watts</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>25924</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="12.6" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Anabella</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Blindermann</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>43564</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" ht="12.6" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="14">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>Fred</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Mengoni</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="n">
         <v>131725</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="10" t="n">
         <v>5000</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="12.6" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="14">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Nathanil</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Bragg</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>100336</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="12.6" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="14">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>Casar</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>Kubek</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="n">
         <v>143750</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" ht="12.6" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="14">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Myrtle</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Puddle</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="n">
         <v>22729</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="12.6" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="14">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>Devi</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>Oag</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>140919</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="12.6" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="14">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Emyle</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>O'Driscole</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>70981</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" ht="12.6" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="14">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>Mickie</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Linbohm</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="n">
         <v>80516</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="12.6" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="14">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Isaac</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Asimov</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="n">
         <v>118852</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="11" t="n">
         <v>65000</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" ht="12.6" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="14">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>Mundow</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="n">
         <v>122953</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" ht="12.6" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="14">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Mahalia</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Goodee</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="n">
         <v>46997</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" ht="12.6" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="14">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>Christy</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>Iwaszkiewicz</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="n">
         <v>91465</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" ht="12.6" customHeight="1">
-      <c r="A26" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>Hmm. Did not quite make it.</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="14">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Madelyn</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Sire</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="n">
         <v>66825</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" ht="12.6" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="14">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>Thurstan</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>Karus</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="n">
         <v>131244</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" ht="12.6" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="14">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Bibi</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Rosita</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="n">
         <v>94131</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" ht="12.6" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="14">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>Abbe</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="inlineStr">
+        <is>
+          <t>Aldcorn</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="n">
         <v>97489</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="10" t="n">
         <v>60000</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" ht="12.6" customHeight="1">
-      <c r="A30" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="14">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Ariadne</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Kiessel</t>
+        </is>
+      </c>
+      <c r="C30" s="11" t="n">
         <v>86637</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="11" t="n">
         <v>70000</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" ht="12.6" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="14">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Tiffany</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>Emerine</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="n">
         <v>124313</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" ht="12.6" customHeight="1">
-      <c r="A32" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="14">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Jelene</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Pridden</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="n">
         <v>91489</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" ht="12.6" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="14">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Claus</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>Bawcock</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="n">
         <v>140602</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="10" t="n">
         <v>25000</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" ht="12.6" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="14">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Ameline</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Olivello</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="n">
         <v>60101</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="11" t="n">
         <v>80000</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" ht="12.6" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>Hmm. Did not quite make it.</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="14">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>Alikee</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Kohtler</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="n">
         <v>141102</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="10" t="n">
         <v>15000</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" ht="12.6" customHeight="1">
-      <c r="A36" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="14">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Cathleen</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Tinklin</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="n">
         <v>113898</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" ht="12.6" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="14">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>Flossie</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>Gurr</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="n">
         <v>111068</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" ht="12.6" customHeight="1">
-      <c r="A38" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="14">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Milena</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Gudeman</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="n">
         <v>24287</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" ht="12.6" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="14">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Bliss</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Burgess</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="n">
         <v>138542</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="10" t="n">
         <v>35000</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" ht="12.6" customHeight="1">
-      <c r="A40" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="14">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Donia</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Messenbird</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="n">
         <v>52436</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" ht="12.6" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="14">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Jemie</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Tunnacliffe</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="n">
         <v>64130</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" ht="12.6" customHeight="1">
-      <c r="A42" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="14">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Gaylord</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Uebel</t>
+        </is>
+      </c>
+      <c r="C42" s="11" t="n">
         <v>27872</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="11" t="n">
         <v>90000</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" ht="12.6" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="14">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Rufus</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Bewlie</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="n">
         <v>119258</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" ht="12.6" customHeight="1">
-      <c r="A44" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="14">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>Jenine</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Kidby</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="n">
         <v>133576</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" ht="12.6" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="14">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>Leal</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="n">
         <v>29530</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" ht="12.6" customHeight="1">
-      <c r="A46" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="14">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Regina</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Gurling</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="n">
         <v>86186</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" ht="12.6" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="14">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>Valenka</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>Tantrum</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="n">
         <v>137708</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="10" t="n">
         <v>65000</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" ht="12.6" customHeight="1">
-      <c r="A48" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="14">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Dorie</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Batistelli</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="n">
         <v>42450</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="11" t="n">
         <v>95000</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" ht="12.6" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="B49" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="C49" s="10">
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="14">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>Abra</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>Heap</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="n">
         <v>5937</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" ht="12.6" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>The boss wants to see you...</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="14">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Petronille</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Lesor</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="n">
         <v>54805</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" ht="12.6" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="B51" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="14">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>Vincenty</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>Stannering</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="n">
         <v>109884</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" ht="12.6" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="14">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="11" t="n"/>
+      <c r="C52" s="11" t="n"/>
+      <c r="D52" s="11" t="n"/>
+      <c r="E52" s="12" t="n"/>
+      <c r="F52" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/SalesData.xlsx
+++ b/SalesData.xlsx
@@ -1567,11 +1567,7 @@
       <c r="D11" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
     <row r="12" ht="12.6" customHeight="1" s="14">
@@ -1591,11 +1587,7 @@
       <c r="D12" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="8" t="n"/>
     </row>
     <row r="13" ht="12.6" customHeight="1" s="14">
@@ -1615,11 +1607,7 @@
       <c r="D13" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>Oh dear.</t>
-        </is>
-      </c>
+      <c r="E13" s="7" t="n"/>
       <c r="F13" s="8" t="n"/>
     </row>
     <row r="14" ht="12.6" customHeight="1" s="14">
@@ -1639,11 +1627,7 @@
       <c r="D14" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>Well. It was a nice attempt. I guess?</t>
-        </is>
-      </c>
+      <c r="E14" s="7" t="n"/>
       <c r="F14" s="8" t="n"/>
     </row>
     <row r="15" ht="12.6" customHeight="1" s="14">
@@ -1663,11 +1647,7 @@
       <c r="D15" s="10" t="n">
         <v>5000</v>
       </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>Holy macaroni!</t>
-        </is>
-      </c>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="8" t="n"/>
     </row>
     <row r="16" ht="12.6" customHeight="1" s="14">
@@ -1687,11 +1667,7 @@
       <c r="D16" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E16" s="7" t="n"/>
       <c r="F16" s="8" t="n"/>
     </row>
     <row r="17" ht="12.6" customHeight="1" s="14">
@@ -1711,11 +1687,7 @@
       <c r="D17" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E17" s="7" t="n"/>
       <c r="F17" s="8" t="n"/>
     </row>
     <row r="18" ht="12.6" customHeight="1" s="14">
@@ -1735,11 +1707,7 @@
       <c r="D18" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E18" s="7" t="n"/>
       <c r="F18" s="8" t="n"/>
     </row>
     <row r="19" ht="12.6" customHeight="1" s="14">
@@ -1759,11 +1727,7 @@
       <c r="D19" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>Holy macaroni!</t>
-        </is>
-      </c>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="8" t="n"/>
     </row>
     <row r="20" ht="12.6" customHeight="1" s="14">
@@ -1783,11 +1747,7 @@
       <c r="D20" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>Magnificent!</t>
-        </is>
-      </c>
+      <c r="E20" s="7" t="n"/>
       <c r="F20" s="8" t="n"/>
     </row>
     <row r="21" ht="12.6" customHeight="1" s="14">
@@ -1807,11 +1767,7 @@
       <c r="D21" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>Magnificent!</t>
-        </is>
-      </c>
+      <c r="E21" s="7" t="n"/>
       <c r="F21" s="8" t="n"/>
     </row>
     <row r="22" ht="12.6" customHeight="1" s="14">
@@ -1831,11 +1787,7 @@
       <c r="D22" s="11" t="n">
         <v>65000</v>
       </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E22" s="7" t="n"/>
       <c r="F22" s="8" t="n"/>
     </row>
     <row r="23" ht="12.6" customHeight="1" s="14">
@@ -1855,11 +1807,7 @@
       <c r="D23" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>Holy macaroni!</t>
-        </is>
-      </c>
+      <c r="E23" s="7" t="n"/>
       <c r="F23" s="8" t="n"/>
     </row>
     <row r="24" ht="12.6" customHeight="1" s="14">
@@ -1879,11 +1827,7 @@
       <c r="D24" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E24" s="7" t="n"/>
       <c r="F24" s="8" t="n"/>
     </row>
     <row r="25" ht="12.6" customHeight="1" s="14">
@@ -1903,11 +1847,7 @@
       <c r="D25" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>Hmm. Did not quite make it.</t>
-        </is>
-      </c>
+      <c r="E25" s="7" t="n"/>
       <c r="F25" s="8" t="n"/>
     </row>
     <row r="26" ht="12.6" customHeight="1" s="14">
@@ -1927,11 +1867,7 @@
       <c r="D26" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E26" s="7" t="n"/>
       <c r="F26" s="8" t="n"/>
     </row>
     <row r="27" ht="12.6" customHeight="1" s="14">
@@ -1951,11 +1887,7 @@
       <c r="D27" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E27" s="7" t="n"/>
       <c r="F27" s="8" t="n"/>
     </row>
     <row r="28" ht="12.6" customHeight="1" s="14">
@@ -1975,11 +1907,7 @@
       <c r="D28" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E28" s="7" t="n"/>
       <c r="F28" s="8" t="n"/>
     </row>
     <row r="29" ht="12.6" customHeight="1" s="14">
@@ -1999,11 +1927,7 @@
       <c r="D29" s="10" t="n">
         <v>60000</v>
       </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="8" t="n"/>
     </row>
     <row r="30" ht="12.6" customHeight="1" s="14">
@@ -2023,11 +1947,7 @@
       <c r="D30" s="11" t="n">
         <v>70000</v>
       </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E30" s="7" t="n"/>
       <c r="F30" s="8" t="n"/>
     </row>
     <row r="31" ht="12.6" customHeight="1" s="14">
@@ -2047,11 +1967,7 @@
       <c r="D31" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32" ht="12.6" customHeight="1" s="14">
@@ -2071,11 +1987,7 @@
       <c r="D32" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E32" s="7" t="n"/>
       <c r="F32" s="8" t="n"/>
     </row>
     <row r="33" ht="12.6" customHeight="1" s="14">
@@ -2095,11 +2007,7 @@
       <c r="D33" s="10" t="n">
         <v>25000</v>
       </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>Magnificent!</t>
-        </is>
-      </c>
+      <c r="E33" s="7" t="n"/>
       <c r="F33" s="8" t="n"/>
     </row>
     <row r="34" ht="12.6" customHeight="1" s="14">
@@ -2119,11 +2027,7 @@
       <c r="D34" s="11" t="n">
         <v>80000</v>
       </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Hmm. Did not quite make it.</t>
-        </is>
-      </c>
+      <c r="E34" s="7" t="n"/>
       <c r="F34" s="8" t="n"/>
     </row>
     <row r="35" ht="12.6" customHeight="1" s="14">
@@ -2143,11 +2047,7 @@
       <c r="D35" s="10" t="n">
         <v>15000</v>
       </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>Magnificent!</t>
-        </is>
-      </c>
+      <c r="E35" s="7" t="n"/>
       <c r="F35" s="8" t="n"/>
     </row>
     <row r="36" ht="12.6" customHeight="1" s="14">
@@ -2167,11 +2067,7 @@
       <c r="D36" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E36" s="7" t="n"/>
       <c r="F36" s="8" t="n"/>
     </row>
     <row r="37" ht="12.6" customHeight="1" s="14">
@@ -2191,11 +2087,7 @@
       <c r="D37" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E37" s="7" t="n"/>
       <c r="F37" s="8" t="n"/>
     </row>
     <row r="38" ht="12.6" customHeight="1" s="14">
@@ -2215,11 +2107,7 @@
       <c r="D38" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t>Well. It was a nice attempt. I guess?</t>
-        </is>
-      </c>
+      <c r="E38" s="7" t="n"/>
       <c r="F38" s="8" t="n"/>
     </row>
     <row r="39" ht="12.6" customHeight="1" s="14">
@@ -2239,11 +2127,7 @@
       <c r="D39" s="10" t="n">
         <v>35000</v>
       </c>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E39" s="7" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40" ht="12.6" customHeight="1" s="14">
@@ -2263,11 +2147,7 @@
       <c r="D40" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>Well. It was a nice attempt. I guess?</t>
-        </is>
-      </c>
+      <c r="E40" s="7" t="n"/>
       <c r="F40" s="8" t="n"/>
     </row>
     <row r="41" ht="12.6" customHeight="1" s="14">
@@ -2287,11 +2167,7 @@
       <c r="D41" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E41" s="7" t="n"/>
       <c r="F41" s="8" t="n"/>
     </row>
     <row r="42" ht="12.6" customHeight="1" s="14">
@@ -2311,11 +2187,7 @@
       <c r="D42" s="11" t="n">
         <v>90000</v>
       </c>
-      <c r="E42" s="7" t="inlineStr">
-        <is>
-          <t>Oh dear.</t>
-        </is>
-      </c>
+      <c r="E42" s="7" t="n"/>
       <c r="F42" s="8" t="n"/>
     </row>
     <row r="43" ht="12.6" customHeight="1" s="14">
@@ -2335,11 +2207,7 @@
       <c r="D43" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E43" s="7" t="n"/>
       <c r="F43" s="8" t="n"/>
     </row>
     <row r="44" ht="12.6" customHeight="1" s="14">
@@ -2359,11 +2227,7 @@
       <c r="D44" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E44" s="7" t="n"/>
       <c r="F44" s="8" t="n"/>
     </row>
     <row r="45" ht="12.6" customHeight="1" s="14">
@@ -2383,11 +2247,7 @@
       <c r="D45" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>Oh dear.</t>
-        </is>
-      </c>
+      <c r="E45" s="7" t="n"/>
       <c r="F45" s="8" t="n"/>
     </row>
     <row r="46" ht="12.6" customHeight="1" s="14">
@@ -2407,11 +2267,7 @@
       <c r="D46" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t>Magnificent!</t>
-        </is>
-      </c>
+      <c r="E46" s="7" t="n"/>
       <c r="F46" s="8" t="n"/>
     </row>
     <row r="47" ht="12.6" customHeight="1" s="14">
@@ -2431,11 +2287,7 @@
       <c r="D47" s="10" t="n">
         <v>65000</v>
       </c>
-      <c r="E47" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E47" s="7" t="n"/>
       <c r="F47" s="8" t="n"/>
     </row>
     <row r="48" ht="12.6" customHeight="1" s="14">
@@ -2455,11 +2307,7 @@
       <c r="D48" s="11" t="n">
         <v>95000</v>
       </c>
-      <c r="E48" s="7" t="inlineStr">
-        <is>
-          <t>Oh dear.</t>
-        </is>
-      </c>
+      <c r="E48" s="7" t="n"/>
       <c r="F48" s="8" t="n"/>
     </row>
     <row r="49" ht="12.6" customHeight="1" s="14">
@@ -2479,11 +2327,7 @@
       <c r="D49" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E49" s="7" t="inlineStr">
-        <is>
-          <t>The boss wants to see you...</t>
-        </is>
-      </c>
+      <c r="E49" s="7" t="n"/>
       <c r="F49" s="8" t="n"/>
     </row>
     <row r="50" ht="12.6" customHeight="1" s="14">
@@ -2503,11 +2347,7 @@
       <c r="D50" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E50" s="7" t="inlineStr">
-        <is>
-          <t>Well. It was a nice attempt. I guess?</t>
-        </is>
-      </c>
+      <c r="E50" s="7" t="n"/>
       <c r="F50" s="8" t="n"/>
     </row>
     <row r="51" ht="12.6" customHeight="1" s="14">
@@ -2527,11 +2367,7 @@
       <c r="D51" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="E51" s="7" t="inlineStr">
-        <is>
-          <t>A positive result. Well done!</t>
-        </is>
-      </c>
+      <c r="E51" s="7" t="n"/>
       <c r="F51" s="8" t="n"/>
     </row>
     <row r="52" ht="12.6" customHeight="1" s="14">

--- a/SalesData.xlsx
+++ b/SalesData.xlsx
@@ -1567,7 +1567,11 @@
       <c r="D11" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E11" s="7" t="n"/>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="n"/>
     </row>
     <row r="12" ht="12.6" customHeight="1" s="14">
@@ -1587,7 +1591,11 @@
       <c r="D12" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E12" s="7" t="n"/>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="n"/>
     </row>
     <row r="13" ht="12.6" customHeight="1" s="14">
@@ -1607,7 +1615,11 @@
       <c r="D13" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E13" s="7" t="n"/>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="n"/>
     </row>
     <row r="14" ht="12.6" customHeight="1" s="14">
@@ -1627,7 +1639,11 @@
       <c r="D14" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E14" s="7" t="n"/>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
       <c r="F14" s="8" t="n"/>
     </row>
     <row r="15" ht="12.6" customHeight="1" s="14">
@@ -1647,7 +1663,11 @@
       <c r="D15" s="10" t="n">
         <v>5000</v>
       </c>
-      <c r="E15" s="7" t="n"/>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
       <c r="F15" s="8" t="n"/>
     </row>
     <row r="16" ht="12.6" customHeight="1" s="14">
@@ -1667,7 +1687,11 @@
       <c r="D16" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E16" s="7" t="n"/>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F16" s="8" t="n"/>
     </row>
     <row r="17" ht="12.6" customHeight="1" s="14">
@@ -1687,7 +1711,11 @@
       <c r="D17" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E17" s="7" t="n"/>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F17" s="8" t="n"/>
     </row>
     <row r="18" ht="12.6" customHeight="1" s="14">
@@ -1707,7 +1735,11 @@
       <c r="D18" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E18" s="7" t="n"/>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="n"/>
     </row>
     <row r="19" ht="12.6" customHeight="1" s="14">
@@ -1727,7 +1759,11 @@
       <c r="D19" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E19" s="7" t="n"/>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
       <c r="F19" s="8" t="n"/>
     </row>
     <row r="20" ht="12.6" customHeight="1" s="14">
@@ -1747,7 +1783,11 @@
       <c r="D20" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="E20" s="7" t="n"/>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
       <c r="F20" s="8" t="n"/>
     </row>
     <row r="21" ht="12.6" customHeight="1" s="14">
@@ -1767,7 +1807,11 @@
       <c r="D21" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E21" s="7" t="n"/>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
       <c r="F21" s="8" t="n"/>
     </row>
     <row r="22" ht="12.6" customHeight="1" s="14">
@@ -1787,7 +1831,11 @@
       <c r="D22" s="11" t="n">
         <v>65000</v>
       </c>
-      <c r="E22" s="7" t="n"/>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F22" s="8" t="n"/>
     </row>
     <row r="23" ht="12.6" customHeight="1" s="14">
@@ -1807,7 +1855,11 @@
       <c r="D23" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="E23" s="7" t="n"/>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>Holy macaroni!</t>
+        </is>
+      </c>
       <c r="F23" s="8" t="n"/>
     </row>
     <row r="24" ht="12.6" customHeight="1" s="14">
@@ -1827,7 +1879,11 @@
       <c r="D24" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E24" s="7" t="n"/>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F24" s="8" t="n"/>
     </row>
     <row r="25" ht="12.6" customHeight="1" s="14">
@@ -1847,7 +1903,11 @@
       <c r="D25" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E25" s="7" t="n"/>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>Hmm. Did not quite make it.</t>
+        </is>
+      </c>
       <c r="F25" s="8" t="n"/>
     </row>
     <row r="26" ht="12.6" customHeight="1" s="14">
@@ -1867,7 +1927,11 @@
       <c r="D26" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E26" s="7" t="n"/>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F26" s="8" t="n"/>
     </row>
     <row r="27" ht="12.6" customHeight="1" s="14">
@@ -1887,7 +1951,11 @@
       <c r="D27" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E27" s="7" t="n"/>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F27" s="8" t="n"/>
     </row>
     <row r="28" ht="12.6" customHeight="1" s="14">
@@ -1907,7 +1975,11 @@
       <c r="D28" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="E28" s="7" t="n"/>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F28" s="8" t="n"/>
     </row>
     <row r="29" ht="12.6" customHeight="1" s="14">
@@ -1927,7 +1999,11 @@
       <c r="D29" s="10" t="n">
         <v>60000</v>
       </c>
-      <c r="E29" s="7" t="n"/>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F29" s="8" t="n"/>
     </row>
     <row r="30" ht="12.6" customHeight="1" s="14">
@@ -1947,7 +2023,11 @@
       <c r="D30" s="11" t="n">
         <v>70000</v>
       </c>
-      <c r="E30" s="7" t="n"/>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F30" s="8" t="n"/>
     </row>
     <row r="31" ht="12.6" customHeight="1" s="14">
@@ -1967,7 +2047,11 @@
       <c r="D31" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E31" s="7" t="n"/>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32" ht="12.6" customHeight="1" s="14">
@@ -1987,7 +2071,11 @@
       <c r="D32" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E32" s="7" t="n"/>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F32" s="8" t="n"/>
     </row>
     <row r="33" ht="12.6" customHeight="1" s="14">
@@ -2007,7 +2095,11 @@
       <c r="D33" s="10" t="n">
         <v>25000</v>
       </c>
-      <c r="E33" s="7" t="n"/>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
       <c r="F33" s="8" t="n"/>
     </row>
     <row r="34" ht="12.6" customHeight="1" s="14">
@@ -2027,7 +2119,11 @@
       <c r="D34" s="11" t="n">
         <v>80000</v>
       </c>
-      <c r="E34" s="7" t="n"/>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>Hmm. Did not quite make it.</t>
+        </is>
+      </c>
       <c r="F34" s="8" t="n"/>
     </row>
     <row r="35" ht="12.6" customHeight="1" s="14">
@@ -2047,7 +2143,11 @@
       <c r="D35" s="10" t="n">
         <v>15000</v>
       </c>
-      <c r="E35" s="7" t="n"/>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
       <c r="F35" s="8" t="n"/>
     </row>
     <row r="36" ht="12.6" customHeight="1" s="14">
@@ -2067,7 +2167,11 @@
       <c r="D36" s="11" t="n">
         <v>35000</v>
       </c>
-      <c r="E36" s="7" t="n"/>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F36" s="8" t="n"/>
     </row>
     <row r="37" ht="12.6" customHeight="1" s="14">
@@ -2087,7 +2191,11 @@
       <c r="D37" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E37" s="7" t="n"/>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F37" s="8" t="n"/>
     </row>
     <row r="38" ht="12.6" customHeight="1" s="14">
@@ -2107,7 +2215,11 @@
       <c r="D38" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="E38" s="7" t="n"/>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
       <c r="F38" s="8" t="n"/>
     </row>
     <row r="39" ht="12.6" customHeight="1" s="14">
@@ -2127,7 +2239,11 @@
       <c r="D39" s="10" t="n">
         <v>35000</v>
       </c>
-      <c r="E39" s="7" t="n"/>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40" ht="12.6" customHeight="1" s="14">
@@ -2147,7 +2263,11 @@
       <c r="D40" s="11" t="n">
         <v>75000</v>
       </c>
-      <c r="E40" s="7" t="n"/>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
       <c r="F40" s="8" t="n"/>
     </row>
     <row r="41" ht="12.6" customHeight="1" s="14">
@@ -2167,7 +2287,11 @@
       <c r="D41" s="10" t="n">
         <v>50000</v>
       </c>
-      <c r="E41" s="7" t="n"/>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F41" s="8" t="n"/>
     </row>
     <row r="42" ht="12.6" customHeight="1" s="14">
@@ -2187,7 +2311,11 @@
       <c r="D42" s="11" t="n">
         <v>90000</v>
       </c>
-      <c r="E42" s="7" t="n"/>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
       <c r="F42" s="8" t="n"/>
     </row>
     <row r="43" ht="12.6" customHeight="1" s="14">
@@ -2207,7 +2335,11 @@
       <c r="D43" s="10" t="n">
         <v>85000</v>
       </c>
-      <c r="E43" s="7" t="n"/>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F43" s="8" t="n"/>
     </row>
     <row r="44" ht="12.6" customHeight="1" s="14">
@@ -2227,7 +2359,11 @@
       <c r="D44" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="E44" s="7" t="n"/>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F44" s="8" t="n"/>
     </row>
     <row r="45" ht="12.6" customHeight="1" s="14">
@@ -2247,7 +2383,11 @@
       <c r="D45" s="10" t="n">
         <v>70000</v>
       </c>
-      <c r="E45" s="7" t="n"/>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
       <c r="F45" s="8" t="n"/>
     </row>
     <row r="46" ht="12.6" customHeight="1" s="14">
@@ -2267,7 +2407,11 @@
       <c r="D46" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="E46" s="7" t="n"/>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>Magnificent!</t>
+        </is>
+      </c>
       <c r="F46" s="8" t="n"/>
     </row>
     <row r="47" ht="12.6" customHeight="1" s="14">
@@ -2287,7 +2431,11 @@
       <c r="D47" s="10" t="n">
         <v>65000</v>
       </c>
-      <c r="E47" s="7" t="n"/>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F47" s="8" t="n"/>
     </row>
     <row r="48" ht="12.6" customHeight="1" s="14">
@@ -2307,7 +2455,11 @@
       <c r="D48" s="11" t="n">
         <v>95000</v>
       </c>
-      <c r="E48" s="7" t="n"/>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>Oh dear.</t>
+        </is>
+      </c>
       <c r="F48" s="8" t="n"/>
     </row>
     <row r="49" ht="12.6" customHeight="1" s="14">
@@ -2327,7 +2479,11 @@
       <c r="D49" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="E49" s="7" t="n"/>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>The boss wants to see you...</t>
+        </is>
+      </c>
       <c r="F49" s="8" t="n"/>
     </row>
     <row r="50" ht="12.6" customHeight="1" s="14">
@@ -2347,7 +2503,11 @@
       <c r="D50" s="11" t="n">
         <v>85000</v>
       </c>
-      <c r="E50" s="7" t="n"/>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>Well. It was a nice attempt. I guess?</t>
+        </is>
+      </c>
       <c r="F50" s="8" t="n"/>
     </row>
     <row r="51" ht="12.6" customHeight="1" s="14">
@@ -2367,7 +2527,11 @@
       <c r="D51" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="E51" s="7" t="n"/>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>A positive result. Well done!</t>
+        </is>
+      </c>
       <c r="F51" s="8" t="n"/>
     </row>
     <row r="52" ht="12.6" customHeight="1" s="14">
